--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3953853.964141638</v>
+        <v>3951973.78437131</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>92.78873042790613</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>146.4340874029164</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>271.439525616678</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.05665370612839</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>83.40252578334265</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>60.46179076613048</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896898</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>149.0799667719505</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>127.7178027211454</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896927</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1822,13 +1822,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>169.7438101404427</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056513</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>70.41761368552028</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578919</v>
+        <v>156.444788471683</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U19" t="n">
         <v>275.1967010728659</v>
@@ -2062,13 +2062,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633258</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>70.41761368552069</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>35.72089146414898</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808135</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U22" t="n">
         <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633258</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>50.76960534990792</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808135</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U25" t="n">
         <v>275.1967010728659</v>
@@ -2539,10 +2539,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>70.41761368552022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>70.41761368551985</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.84698023557826</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.196701072866</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V28" t="n">
-        <v>241.0969919981167</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108797</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.92370107808132</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U31" t="n">
-        <v>275.196701072866</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V31" t="n">
-        <v>241.0969919981167</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108797</v>
+        <v>136.647765052503</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>70.4176136855198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2603.423100687004</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2384.788433659066</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2131.026648297158</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1799.963760953587</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1799.963760953587</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1426.498002692507</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2494.20718194981</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2494.20718194981</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2494.20718194981</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2494.20718194981</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2494.20718194981</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>2494.20718194981</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>2494.20718194981</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097701</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>298.5994341132082</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>291.6539333640048</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,13 +4890,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.09316900344</v>
@@ -5027,25 +5027,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155882</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,31 +5057,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5106,31 +5106,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>550.2226492899338</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698953</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5206,13 +5206,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,19 +5221,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1348.33044553573</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1124.545030325236</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>835.416391538794</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="W13" t="n">
         <v>545.9992215018333</v>
@@ -5242,7 +5242,7 @@
         <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5291,19 +5291,19 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>229.0333923118347</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.082206476519</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5492,67 +5492,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.3459941729325</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>168.3459941729325</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>168.3459941729325</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>168.3459941729325</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937155</v>
+        <v>281.6456777937159</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172989</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
@@ -5689,34 +5689,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029363</v>
+        <v>1428.333190197251</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875143</v>
+        <v>1215.699948043031</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449749</v>
+        <v>937.7234823128632</v>
       </c>
       <c r="V19" t="n">
-        <v>663.4483689953622</v>
+        <v>694.1911671632505</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146757</v>
+        <v>694.1911671632505</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729325</v>
+        <v>477.3537893215073</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.3459941729325</v>
+        <v>267.7133832342514</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.345994172933</v>
+        <v>291.082809881564</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>133.2988000099313</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>133.2988000099313</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5911,7 +5911,7 @@
         <v>120.53002873665</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L22" t="n">
         <v>540.2879676172993</v>
@@ -5923,37 +5923,37 @@
         <v>1104.259309036938</v>
       </c>
       <c r="O22" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q22" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1273.802056521417</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449753</v>
+        <v>995.8255907912495</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953624</v>
+        <v>995.8255907912495</v>
       </c>
       <c r="W22" t="n">
-        <v>385.183372014676</v>
+        <v>717.5605938105631</v>
       </c>
       <c r="X22" t="n">
-        <v>168.345994172933</v>
+        <v>500.7232159688199</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.345994172933</v>
+        <v>291.082809881564</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1841.189502980822</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2361.490124716569</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>285.2604416327764</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6145,7 +6145,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366499</v>
       </c>
       <c r="K25" t="n">
         <v>281.6456777937157</v>
@@ -6154,43 +6154,43 @@
         <v>540.2879676172993</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969365</v>
       </c>
       <c r="N25" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P25" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q25" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U25" t="n">
-        <v>906.9806841449752</v>
+        <v>807.0577537630754</v>
       </c>
       <c r="V25" t="n">
-        <v>663.4483689953624</v>
+        <v>563.5254386134627</v>
       </c>
       <c r="W25" t="n">
-        <v>385.183372014676</v>
+        <v>285.2604416327764</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729325</v>
+        <v>285.2604416327764</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>285.2604416327764</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>735.040755905723</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729319</v>
+        <v>371.9193322579836</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729319</v>
+        <v>371.9193322579836</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729319</v>
+        <v>232.954865901922</v>
       </c>
       <c r="E28" t="n">
-        <v>168.3459941729319</v>
+        <v>232.954865901922</v>
       </c>
       <c r="F28" t="n">
-        <v>168.3459941729319</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>168.3459941729319</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937155</v>
+        <v>281.6456777937159</v>
       </c>
       <c r="L28" t="n">
-        <v>540.287967617299</v>
+        <v>540.2879676172994</v>
       </c>
       <c r="M28" t="n">
-        <v>822.784955196936</v>
+        <v>822.7849551969365</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P28" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q28" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057536</v>
+        <v>1530.95723892059</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029362</v>
+        <v>1342.189401892416</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875142</v>
+        <v>1342.189401892416</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449745</v>
+        <v>1064.212936162248</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953616</v>
+        <v>820.6806210126356</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146751</v>
+        <v>542.4156240319492</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729319</v>
+        <v>542.4156240319492</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729319</v>
+        <v>542.4156240319492</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,10 +6482,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>255.0011013319186</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5300287366499</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937156</v>
+        <v>281.6456777937159</v>
       </c>
       <c r="L31" t="n">
-        <v>540.287967617299</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969359</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
@@ -6637,34 +6637,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q31" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449749</v>
+        <v>807.0577537630757</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953621</v>
+        <v>563.5254386134629</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146756</v>
+        <v>425.497393105884</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729321</v>
+        <v>425.497393105884</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>425.497393105884</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.0503551525399</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.193690363625</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
         <v>559.3441472229672</v>
@@ -7315,7 +7315,7 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,7 +7366,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>559.3999450277973</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254956</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,19 +8769,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>15.83804904622878</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>253.7371603504738</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>91.23759968302141</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504743</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>286.5092576192341</v>
       </c>
       <c r="P18" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>28.12263706263008</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>165.9802687929755</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>202.5230052237934</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,16 +10200,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>20.63789864135492</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928342</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>32.92248665775651</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,13 +11303,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>148.2747143566559</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>48.84084321165278</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>158.8051956154457</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338588</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208578</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F19" t="n">
-        <v>63.96278301169957</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G19" t="n">
         <v>155.4529171376662</v>
@@ -23908,7 +23908,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>99.3785941385606</v>
+        <v>99.37859413856054</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808141</v>
+        <v>98.92370107808135</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>30.43537018620881</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>85.78855608739575</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208578</v>
+        <v>99.67241985670876</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972199</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G22" t="n">
         <v>155.4529171376662</v>
@@ -24145,7 +24145,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856059</v>
+        <v>99.37859413856054</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>105.4365644230085</v>
       </c>
       <c r="D25" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208578</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>134.3803966972199</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G25" t="n">
         <v>155.4529171376662</v>
@@ -24382,7 +24382,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856059</v>
+        <v>99.37859413856054</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y25" t="n">
-        <v>137.1263883408632</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.791328856226</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729165</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208578</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F28" t="n">
-        <v>134.3803966972199</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
-        <v>67.45556335630476</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856064</v>
+        <v>99.37859413856054</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808145</v>
+        <v>44.07672084250308</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263835</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.791328856226</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>156.2061697729165</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3933113208578</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F31" t="n">
-        <v>134.3803966972199</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376662</v>
+        <v>155.4529171376661</v>
       </c>
       <c r="H31" t="n">
-        <v>137.8731770418248</v>
+        <v>137.8731770418246</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856064</v>
+        <v>99.37859413856052</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808145</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>138.8345819583765</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.1263883408637</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>647033.3094766291</v>
+        <v>647033.3094766292</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>652087.0943110489</v>
+        <v>652087.094311049</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652087.0943110489</v>
+        <v>652087.094311049</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
@@ -26320,40 +26320,40 @@
         <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="F2" t="n">
         <v>742955.2135016473</v>
       </c>
       <c r="G2" t="n">
-        <v>748956.5829925193</v>
+        <v>748956.5829925194</v>
       </c>
       <c r="H2" t="n">
-        <v>748956.5829925193</v>
+        <v>748956.5829925195</v>
       </c>
       <c r="I2" t="n">
         <v>748956.5829925194</v>
       </c>
       <c r="J2" t="n">
-        <v>748956.5829925191</v>
+        <v>748956.5829925193</v>
       </c>
       <c r="K2" t="n">
         <v>748956.5829925191</v>
       </c>
       <c r="L2" t="n">
+        <v>779989.6813710695</v>
+      </c>
+      <c r="M2" t="n">
         <v>779989.6813710694</v>
       </c>
-      <c r="M2" t="n">
-        <v>779989.6813710692</v>
-      </c>
       <c r="N2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="P2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710696</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569061</v>
+        <v>8832.521060569145</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165632.8677865245</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26424,40 +26424,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687079</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687067</v>
       </c>
       <c r="G4" t="n">
-        <v>25807.53208971003</v>
+        <v>25807.53208971</v>
       </c>
       <c r="H4" t="n">
         <v>25807.53208971002</v>
       </c>
       <c r="I4" t="n">
-        <v>25807.53208971001</v>
+        <v>25807.53208971002</v>
       </c>
       <c r="J4" t="n">
-        <v>25807.53208970996</v>
+        <v>25807.53208971002</v>
       </c>
       <c r="K4" t="n">
-        <v>25807.53208970997</v>
+        <v>25807.53208971004</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819114</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="O4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501788</v>
       </c>
       <c r="H5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="I5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="J5" t="n">
         <v>92915.50246501787</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58470.14369340942</v>
+        <v>-58470.14369340919</v>
       </c>
       <c r="C6" t="n">
         <v>531497.735521135</v>
@@ -26528,40 +26528,40 @@
         <v>531497.735521135</v>
       </c>
       <c r="E6" t="n">
-        <v>103633.2434891637</v>
+        <v>103535.7843631915</v>
       </c>
       <c r="F6" t="n">
-        <v>628793.2799660601</v>
+        <v>628695.820840088</v>
       </c>
       <c r="G6" t="n">
-        <v>621401.0273772223</v>
+        <v>621319.3613288578</v>
       </c>
       <c r="H6" t="n">
-        <v>630233.5484377914</v>
+        <v>630151.882389427</v>
       </c>
       <c r="I6" t="n">
-        <v>630233.5484377915</v>
+        <v>630151.8823894269</v>
       </c>
       <c r="J6" t="n">
-        <v>453810.3292451983</v>
+        <v>453728.6631968339</v>
       </c>
       <c r="K6" t="n">
-        <v>630233.5484377913</v>
+        <v>630151.8823894267</v>
       </c>
       <c r="L6" t="n">
-        <v>583175.6686191403</v>
+        <v>583175.6686191404</v>
       </c>
       <c r="M6" t="n">
-        <v>502880.1654890154</v>
+        <v>502880.1654890156</v>
       </c>
       <c r="N6" t="n">
-        <v>637681.1807228528</v>
+        <v>637681.1807228529</v>
       </c>
       <c r="O6" t="n">
         <v>637681.1807228528</v>
       </c>
       <c r="P6" t="n">
-        <v>637681.1807228528</v>
+        <v>637681.1807228531</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H2" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="I2" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>81.6269823810654</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>56.5240607276603</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>27.98162540605512</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>77.80144310073501</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>4.973311585527682</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27819,10 +27819,10 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>162.0888852438905</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>330.3816442374523</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>190.7623767421588</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>69.58249272689014</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.37316471551389</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,13 +28102,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.672078567559044e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,13 +28375,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571143</v>
       </c>
     </row>
     <row r="20">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="C22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="D22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="E22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="F22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="G22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="I22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="J22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="L22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="N22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="O22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="P22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="R22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="S22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="T22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="U22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="V22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="W22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="X22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="C25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="D25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="E25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="F25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="G25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="I25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="J25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="L25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="N25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="O25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="P25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="R25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="S25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="T25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="U25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="V25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="W25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="X25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571143</v>
       </c>
     </row>
     <row r="26">
@@ -29287,13 +29287,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="29">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571134</v>
+        <v>11.04065132571147</v>
       </c>
     </row>
     <row r="32">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35489,19 +35489,19 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>265.095754002253</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>586.9317337484866</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
@@ -35659,7 +35659,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>133.1477786379281</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819989</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556558</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
@@ -35817,10 +35817,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187475</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>568.8729598603422</v>
       </c>
       <c r="P18" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127691</v>
+        <v>23.54842149127696</v>
       </c>
       <c r="K19" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L19" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M19" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N19" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O19" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P19" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758613</v>
+        <v>50.26635129758619</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>235.2160519941548</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127692</v>
+        <v>23.54842149127696</v>
       </c>
       <c r="K22" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L22" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M22" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N22" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O22" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758615</v>
+        <v>50.26635129758619</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>253.9933015780496</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127692</v>
+        <v>23.54842149127699</v>
       </c>
       <c r="K25" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L25" t="n">
-        <v>261.2548382056399</v>
+        <v>261.2548382056401</v>
       </c>
       <c r="M25" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N25" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313152</v>
       </c>
       <c r="O25" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P25" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758615</v>
+        <v>50.2663512975862</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>451.7807101798178</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127687</v>
+        <v>23.54842149127697</v>
       </c>
       <c r="K28" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L28" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M28" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N28" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313152</v>
       </c>
       <c r="O28" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P28" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.2663512975861</v>
+        <v>50.2663512975862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36920,16 +36920,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127687</v>
+        <v>23.548421491277</v>
       </c>
       <c r="K31" t="n">
-        <v>162.7430798556219</v>
+        <v>162.7430798556221</v>
       </c>
       <c r="L31" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M31" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N31" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.2663512975861</v>
+        <v>50.26635129758623</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>269.8956035973792</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221134</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,19 +37543,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>343.3468637082227</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,13 +37950,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>298.8501529445951</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
